--- a/Data y gráficos/Data final detalle.xlsx
+++ b/Data y gráficos/Data final detalle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{2D7F51BE-EEBB-4083-BF88-47680F990684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0149A34F-51FD-4145-9F8B-76CF3BBBF6AA}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{2D7F51BE-EEBB-4083-BF88-47680F990684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D8B2EC6-5A7B-4417-9A1F-D84770B08D1A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{0467ED94-C621-4CC9-B2FA-0BEA4C3291BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{0467ED94-C621-4CC9-B2FA-0BEA4C3291BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data bruta" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Data 2" sheetId="7" r:id="rId4"/>
     <sheet name="Descripción datos" sheetId="5" r:id="rId5"/>
     <sheet name="IF" sheetId="6" r:id="rId6"/>
-    <sheet name="Tabla 2 (2)" sheetId="8" r:id="rId7"/>
-    <sheet name="Tabla 1 (2)" sheetId="9" r:id="rId8"/>
+    <sheet name="Tabla 1 IF1" sheetId="9" r:id="rId7"/>
+    <sheet name="Tabla 2 (2)" sheetId="8" r:id="rId8"/>
+    <sheet name="Tabla 1 IF2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="218">
   <si>
     <t>Fecha</t>
   </si>
@@ -608,6 +609,96 @@
   <si>
     <t>Promedio de IPC de tres meses para hallar IPC trimestral. Luego aplicar variaciones porcentuals anuales simples.</t>
   </si>
+  <si>
+    <t>% Hogares deudores</t>
+  </si>
+  <si>
+    <t>% Microempresas deudoras</t>
+  </si>
+  <si>
+    <t>DEBTOR_HOGAR</t>
+  </si>
+  <si>
+    <t>DEBTOR_MICRO</t>
+  </si>
+  <si>
+    <t>DEBTOR_POB</t>
+  </si>
+  <si>
+    <t>DEBTORS</t>
+  </si>
+  <si>
+    <t>Suma de deudores de créditos de consumo y créditos hipotecarios entre deudores totales</t>
+  </si>
+  <si>
+    <t>Deudores de créditos otorgados a microempresas entre deudores totales</t>
+  </si>
+  <si>
+    <t>Deudores totales como porcentaje de la población adulta</t>
+  </si>
+  <si>
+    <t>N° Deudores / población adulta*</t>
+  </si>
+  <si>
+    <t>Índice construido por PCA de dos etapas (2PCA) a partir de datos del sistema financiero.</t>
+  </si>
+  <si>
+    <t>Deudores totales del sistema financiero</t>
+  </si>
+  <si>
+    <t>OFIC</t>
+  </si>
+  <si>
+    <t>OFIC_POB</t>
+  </si>
+  <si>
+    <t>OFIC_GEO</t>
+  </si>
+  <si>
+    <t>N° Oficinas del sistema financiero</t>
+  </si>
+  <si>
+    <t>N° Oficinas por cada 100 mil adultos</t>
+  </si>
+  <si>
+    <t>N° de oficinas por cada 1000</t>
+  </si>
+  <si>
+    <t>Oficinas del sisema financiero</t>
+  </si>
+  <si>
+    <t>Oficinas por cada 100 mil adultos</t>
+  </si>
+  <si>
+    <t>Oficinas por cada 1000 kilométros cuadrados</t>
+  </si>
+  <si>
+    <t>CRED_HOGAR</t>
+  </si>
+  <si>
+    <t>CRED_MICRO</t>
+  </si>
+  <si>
+    <t>DEPO_CRED</t>
+  </si>
+  <si>
+    <t>% Créditos a hogares</t>
+  </si>
+  <si>
+    <t>% Créditos a microempresas</t>
+  </si>
+  <si>
+    <t>Profundidad de los créditos y depósitos al PBI</t>
+  </si>
+  <si>
+    <t>Suma de créditos de consumo y créditos hipotecarios respecto a los créditos totales</t>
+  </si>
+  <si>
+    <t>Créditos otorgados a microempresas respecto a los créditos totales</t>
+  </si>
+  <si>
+    <t>Suma del volumen de créditos y depósitos entre el PBI</t>
+  </si>
 </sst>
 </file>
 
@@ -1082,6 +1173,159 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>970545</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>192506</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295787" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BE2EEF-A5BE-4736-A441-F5584E4B300F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3160292" y="3304674"/>
+              <a:ext cx="295787" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-PE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-PE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘𝑚</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-PE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-PE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BE2EEF-A5BE-4736-A441-F5584E4B300F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3160292" y="3304674"/>
+              <a:ext cx="295787" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝑘𝑚〗^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-PE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -20066,10 +20310,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AFA16D-0C93-4ACA-AB49-904B37DD3090}">
+  <sheetPr>
+    <tabColor rgb="FFEE0000"/>
+  </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24125,6 +24372,283 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8D17E2-1EE0-4156-A886-996C50BABDF9}">
+  <dimension ref="A2:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+      <c r="C4" s="1"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="76"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="34"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="76"/>
+      <c r="C13" s="1"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="61.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="85"/>
+    </row>
+    <row r="19" spans="2:7" ht="61.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="G18:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F370F65D-B577-49F4-814D-27DAA8D900D3}">
   <dimension ref="B3:F15"/>
   <sheetViews>
@@ -24333,19 +24857,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8D17E2-1EE0-4156-A886-996C50BABDF9}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74077B3-EE9B-47EA-B784-EBE5DEFCE287}">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24366,7 +24890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>99</v>
       </c>
@@ -24374,7 +24898,7 @@
         <v>141</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>143</v>
@@ -24398,13 +24922,13 @@
     <row r="6" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84"/>
       <c r="B6" s="81" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>41</v>
@@ -24416,13 +24940,13 @@
     <row r="7" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84"/>
       <c r="B7" s="81" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>41</v>
@@ -24434,13 +24958,13 @@
     <row r="8" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84"/>
       <c r="B8" s="75" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>41</v>
@@ -24452,13 +24976,13 @@
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="84"/>
       <c r="B9" s="75" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>143</v>
@@ -24484,13 +25008,13 @@
     </row>
     <row r="12" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="78" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>143</v>
@@ -24499,63 +25023,63 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
-      <c r="C13" s="1"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
+    <row r="13" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="76"/>
+      <c r="C15" s="1"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="75" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>41</v>
@@ -24564,15 +25088,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="61.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="75" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>41</v>
@@ -24582,15 +25106,15 @@
       </c>
       <c r="G18" s="85"/>
     </row>
-    <row r="19" spans="2:7" ht="61.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="43" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>41</v>
@@ -24607,5 +25131,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data y gráficos/Data final detalle.xlsx
+++ b/Data y gráficos/Data final detalle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{2D7F51BE-EEBB-4083-BF88-47680F990684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D8B2EC6-5A7B-4417-9A1F-D84770B08D1A}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{2D7F51BE-EEBB-4083-BF88-47680F990684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CFE8545-3A41-4022-B905-534CB969F1BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{0467ED94-C621-4CC9-B2FA-0BEA4C3291BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="8" xr2:uid="{0467ED94-C621-4CC9-B2FA-0BEA4C3291BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data bruta" sheetId="1" r:id="rId1"/>
@@ -1183,8 +1183,8 @@
       <xdr:rowOff>192506</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="295787" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1266,7 +1266,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -20315,7 +20315,7 @@
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -24861,8 +24861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74077B3-EE9B-47EA-B784-EBE5DEFCE287}">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
